--- a/heveshWB/wildberries.xlsx
+++ b/heveshWB/wildberries.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C5824B-0D7E-42CA-B837-B91E709CB3D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Остатки" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <definedName name="ExternalData_6" localSheetId="0" hidden="1">Остатки!$J$2:$K$121</definedName>
     <definedName name="ExternalData_7" localSheetId="0" hidden="1">Остатки!$H$2:$I$431</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,8 +30,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{7350413C-F450-4FA8-8320-E31D104F0472}" keepAlive="1" interval="1" name="Запрос — TDSheet" description="Соединение с запросом &quot;TDSheet&quot; в книге." type="5" refreshedVersion="6" refreshOnLoad="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" keepAlive="1" interval="1" name="Запрос — TDSheet" description="Соединение с запросом &quot;TDSheet&quot; в книге." type="5" refreshedVersion="6" refreshOnLoad="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=TDSheet;Extended Properties=&quot;&quot;" command="SELECT * FROM [TDSheet]"/>
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
@@ -40,7 +39,7 @@
       </ext>
     </extLst>
   </connection>
-  <connection id="2" xr16:uid="{99841B5F-51AC-4F07-A1ED-9FF5E3D38401}" keepAlive="1" interval="1" name="Запрос — TDSheet (2)" description="Соединение с запросом &quot;TDSheet (2)&quot; в книге." type="5" refreshedVersion="6" refreshOnLoad="1" saveData="1">
+  <connection id="2" keepAlive="1" interval="1" name="Запрос — TDSheet (2)" description="Соединение с запросом &quot;TDSheet (2)&quot; в книге." type="5" refreshedVersion="6" refreshOnLoad="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=&quot;TDSheet (2)&quot;;Extended Properties=&quot;&quot;" command="SELECT * FROM [TDSheet (2)]"/>
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
@@ -48,7 +47,7 @@
       </ext>
     </extLst>
   </connection>
-  <connection id="3" xr16:uid="{16788BAE-8021-482E-9356-6D5A0DBE9C12}" keepAlive="1" name="Запрос — TDSheet (3)" description="Соединение с запросом &quot;TDSheet (3)&quot; в книге." type="5" refreshedVersion="6" saveData="1">
+  <connection id="3" keepAlive="1" name="Запрос — TDSheet (3)" description="Соединение с запросом &quot;TDSheet (3)&quot; в книге." type="5" refreshedVersion="6" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=&quot;TDSheet (3)&quot;;Extended Properties=&quot;&quot;" command="SELECT * FROM [TDSheet (3)]"/>
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
@@ -56,7 +55,7 @@
       </ext>
     </extLst>
   </connection>
-  <connection id="4" xr16:uid="{3C810F61-1A8B-41B2-A736-D85295D5822B}" keepAlive="1" name="Запрос — TDSheet (4)" description="Соединение с запросом &quot;TDSheet (4)&quot; в книге." type="5" refreshedVersion="6" saveData="1">
+  <connection id="4" keepAlive="1" name="Запрос — TDSheet (4)" description="Соединение с запросом &quot;TDSheet (4)&quot; в книге." type="5" refreshedVersion="6" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=&quot;TDSheet (4)&quot;;Extended Properties=&quot;&quot;" command="SELECT * FROM [TDSheet (4)]"/>
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
@@ -64,7 +63,7 @@
       </ext>
     </extLst>
   </connection>
-  <connection id="5" xr16:uid="{042CFD9D-2479-47EA-9FD9-FE33FDAA4608}" keepAlive="1" name="Запрос — TDSheet (5)" description="Соединение с запросом &quot;TDSheet (5)&quot; в книге." type="5" refreshedVersion="6" saveData="1">
+  <connection id="5" keepAlive="1" name="Запрос — TDSheet (5)" description="Соединение с запросом &quot;TDSheet (5)&quot; в книге." type="5" refreshedVersion="6" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=&quot;TDSheet (5)&quot;;Extended Properties=&quot;&quot;" command="SELECT * FROM [TDSheet (5)]"/>
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
@@ -72,7 +71,7 @@
       </ext>
     </extLst>
   </connection>
-  <connection id="6" xr16:uid="{BCBE3C1A-B7D9-4D52-88E0-C41769AFB2A1}" keepAlive="1" name="Запрос — TDSheet (6)" description="Соединение с запросом &quot;TDSheet (6)&quot; в книге." type="5" refreshedVersion="6" saveData="1">
+  <connection id="6" keepAlive="1" name="Запрос — TDSheet (6)" description="Соединение с запросом &quot;TDSheet (6)&quot; в книге." type="5" refreshedVersion="6" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=&quot;TDSheet (6)&quot;;Extended Properties=&quot;&quot;" command="SELECT * FROM [TDSheet (6)]"/>
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
@@ -84,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2189" uniqueCount="1764">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2188" uniqueCount="1764">
   <si>
     <t>Баркод</t>
   </si>
@@ -5381,7 +5380,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -5510,8 +5509,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <name val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -5531,8 +5528,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <name val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -5721,8 +5716,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <name val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -5742,8 +5735,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <name val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -5800,7 +5791,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_7" backgroundRefresh="0" connectionId="6" xr16:uid="{C8688F03-48D5-44BE-99FA-ED8CC943BCF7}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_7" backgroundRefresh="0" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="11">
     <queryTableFields count="2">
       <queryTableField id="1" name="Сведено" tableColumnId="1"/>
@@ -5811,7 +5802,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_6" backgroundRefresh="0" connectionId="5" xr16:uid="{B6D2C9AA-5925-4F2E-9DD2-93F200F111AF}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_6" backgroundRefresh="0" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="3">
     <queryTableFields count="2">
       <queryTableField id="1" name="Сведено" tableColumnId="1"/>
@@ -5822,7 +5813,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_5" backgroundRefresh="0" connectionId="3" xr16:uid="{D0C2D0AD-A63C-4112-B771-B1B731DFDE0C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_5" backgroundRefresh="0" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="3">
     <queryTableFields count="2">
       <queryTableField id="1" name="Сведено" tableColumnId="1"/>
@@ -5833,7 +5824,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_4" backgroundRefresh="0" connectionId="4" xr16:uid="{6FD69E9C-4DC7-40F0-B45F-35B01DBBFF8F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_4" backgroundRefresh="0" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="13">
     <queryTableFields count="2">
       <queryTableField id="1" name="Сведено" tableColumnId="1"/>
@@ -5844,44 +5835,44 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F1AA83BF-44D3-49B1-AC2C-288A7B9F7AA3}" name="TDSheet" displayName="TDSheet" ref="H2:I431" tableType="queryTable" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
-  <autoFilter ref="H2:I431" xr:uid="{C23FE29F-6803-4488-9ECC-5DF115EC77C8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TDSheet" displayName="TDSheet" ref="H2:I431" tableType="queryTable" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <autoFilter ref="H2:I431"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{4C1D3A40-839B-497B-828B-D47004167F28}" uniqueName="1" name="Сведено" queryTableFieldId="1" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{65A1F288-F4EA-4A7E-B6AD-07B0C07A8F43}" uniqueName="2" name="Column5" queryTableFieldId="2" dataDxfId="11"/>
+    <tableColumn id="1" uniqueName="1" name="Сведено" queryTableFieldId="1" dataDxfId="12"/>
+    <tableColumn id="2" uniqueName="2" name="Column5" queryTableFieldId="2" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1038A8AD-1355-4366-952A-1F39BBB8C4C5}" name="TDSheet__2" displayName="TDSheet__2" ref="J2:K121" tableType="queryTable" totalsRowShown="0" headerRowDxfId="10">
-  <autoFilter ref="J2:K121" xr:uid="{E5B61A26-B8E0-4F31-B144-35B443668D47}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="TDSheet__2" displayName="TDSheet__2" ref="J2:K121" tableType="queryTable" totalsRowShown="0" headerRowDxfId="10">
+  <autoFilter ref="J2:K121"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{4FBB2A38-307D-482C-802D-8297C7B2814C}" uniqueName="1" name="Сведено" queryTableFieldId="1" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{B8CCE0E6-CAEA-4BED-ADBF-31C37348C17A}" uniqueName="2" name="Column4" queryTableFieldId="2" dataDxfId="8"/>
+    <tableColumn id="1" uniqueName="1" name="Сведено" queryTableFieldId="1" dataDxfId="9"/>
+    <tableColumn id="2" uniqueName="2" name="Column4" queryTableFieldId="2" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4713EE3B-9093-4D86-ACB6-FC132B0AAF72}" name="TDSheet__3" displayName="TDSheet__3" ref="L2:M121" tableType="queryTable" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="L2:M121" xr:uid="{5315B69C-D23A-4DA7-9C7E-1A6D9A23F66B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="TDSheet__3" displayName="TDSheet__3" ref="L2:M121" tableType="queryTable" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="L2:M121"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{1C34F97B-7468-4BEE-90CE-6D94B7EEA02B}" uniqueName="1" name="Сведено" queryTableFieldId="1" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{EE31CC8B-EBC4-4030-BEA6-5A7447C15D2E}" uniqueName="2" name="Column4" queryTableFieldId="2" dataDxfId="4"/>
+    <tableColumn id="1" uniqueName="1" name="Сведено" queryTableFieldId="1" dataDxfId="5"/>
+    <tableColumn id="2" uniqueName="2" name="Column4" queryTableFieldId="2" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{ADE26C81-7CD6-49A5-B3E2-025AEBE081E1}" name="TDSheet__4" displayName="TDSheet__4" ref="N2:O431" tableType="queryTable" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
-  <autoFilter ref="N2:O431" xr:uid="{11913511-D965-4710-90BB-ACC016FFC305}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="TDSheet__4" displayName="TDSheet__4" ref="N2:O431" tableType="queryTable" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+  <autoFilter ref="N2:O431"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{275F3E42-4220-44EE-93D4-CFC5D5A95A31}" uniqueName="1" name="Сведено" queryTableFieldId="1" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{33555457-7BAB-4621-9E4D-878203DF4857}" uniqueName="2" name="Column5" queryTableFieldId="2" dataDxfId="0"/>
+    <tableColumn id="1" uniqueName="1" name="Сведено" queryTableFieldId="1" dataDxfId="1"/>
+    <tableColumn id="2" uniqueName="2" name="Column5" queryTableFieldId="2" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6144,30 +6135,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O692"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="34.7109375" customWidth="1"/>
-    <col min="8" max="8" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="34.6640625" customWidth="1"/>
+    <col min="8" max="8" width="38.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="39" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -6175,7 +6166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>128</v>
       </c>
@@ -6218,9 +6209,9 @@
         <v>543</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>123</v>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>2200000023957</v>
       </c>
       <c r="B3" s="2">
         <f t="shared" ref="B3:B66" si="1">IF((F3-2)&lt;0,0,F3-2)</f>
@@ -6261,7 +6252,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>127</v>
       </c>
@@ -6304,7 +6295,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>135</v>
       </c>
@@ -6347,7 +6338,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>129</v>
       </c>
@@ -6390,7 +6381,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>122</v>
       </c>
@@ -6433,7 +6424,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>126</v>
       </c>
@@ -6476,7 +6467,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>134</v>
       </c>
@@ -6519,7 +6510,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>130</v>
       </c>
@@ -6562,7 +6553,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>121</v>
       </c>
@@ -6605,7 +6596,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>125</v>
       </c>
@@ -6648,7 +6639,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>133</v>
       </c>
@@ -6691,7 +6682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>131</v>
       </c>
@@ -6734,7 +6725,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>120</v>
       </c>
@@ -6777,7 +6768,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>124</v>
       </c>
@@ -6820,7 +6811,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>132</v>
       </c>
@@ -6863,7 +6854,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>22</v>
       </c>
@@ -6906,7 +6897,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>117</v>
       </c>
@@ -6949,7 +6940,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>110</v>
       </c>
@@ -6992,7 +6983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>109</v>
       </c>
@@ -7035,7 +7026,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>118</v>
       </c>
@@ -7078,7 +7069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>116</v>
       </c>
@@ -7121,7 +7112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>31</v>
       </c>
@@ -7164,7 +7155,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -7207,7 +7198,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>34</v>
       </c>
@@ -7250,7 +7241,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>37</v>
       </c>
@@ -7293,7 +7284,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>102</v>
       </c>
@@ -7336,7 +7327,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>94</v>
       </c>
@@ -7379,7 +7370,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>95</v>
       </c>
@@ -7422,7 +7413,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>79</v>
       </c>
@@ -7465,7 +7456,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>16</v>
       </c>
@@ -7508,7 +7499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>48</v>
       </c>
@@ -7551,7 +7542,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>17</v>
       </c>
@@ -7594,7 +7585,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>101</v>
       </c>
@@ -7637,7 +7628,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>47</v>
       </c>
@@ -7680,7 +7671,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>92</v>
       </c>
@@ -7723,7 +7714,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>46</v>
       </c>
@@ -7766,7 +7757,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>69</v>
       </c>
@@ -7809,7 +7800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>65</v>
       </c>
@@ -7852,7 +7843,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>78</v>
       </c>
@@ -7895,7 +7886,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>93</v>
       </c>
@@ -7938,7 +7929,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>77</v>
       </c>
@@ -7981,7 +7972,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>62</v>
       </c>
@@ -8024,7 +8015,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>53</v>
       </c>
@@ -8067,7 +8058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>39</v>
       </c>
@@ -8110,7 +8101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
         <v>56</v>
       </c>
@@ -8153,7 +8144,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>38</v>
       </c>
@@ -8196,7 +8187,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
         <v>9</v>
       </c>
@@ -8239,7 +8230,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>18</v>
       </c>
@@ -8282,7 +8273,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>119</v>
       </c>
@@ -8325,7 +8316,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>108</v>
       </c>
@@ -8368,7 +8359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>107</v>
       </c>
@@ -8411,7 +8402,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
         <v>115</v>
       </c>
@@ -8454,7 +8445,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
         <v>114</v>
       </c>
@@ -8497,7 +8488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
         <v>30</v>
       </c>
@@ -8540,7 +8531,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
         <v>25</v>
       </c>
@@ -8583,7 +8574,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
         <v>32</v>
       </c>
@@ -8626,7 +8617,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
         <v>36</v>
       </c>
@@ -8669,7 +8660,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
         <v>100</v>
       </c>
@@ -8712,7 +8703,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
         <v>91</v>
       </c>
@@ -8755,7 +8746,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
         <v>90</v>
       </c>
@@ -8798,7 +8789,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
         <v>76</v>
       </c>
@@ -8841,7 +8832,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
         <v>13</v>
       </c>
@@ -8884,7 +8875,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
         <v>8</v>
       </c>
@@ -8927,7 +8918,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
         <v>12</v>
       </c>
@@ -8970,7 +8961,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
         <v>99</v>
       </c>
@@ -9013,7 +9004,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
         <v>55</v>
       </c>
@@ -9056,7 +9047,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
         <v>89</v>
       </c>
@@ -9099,7 +9090,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
         <v>45</v>
       </c>
@@ -9142,7 +9133,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
         <v>70</v>
       </c>
@@ -9185,7 +9176,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
         <v>64</v>
       </c>
@@ -9228,7 +9219,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
         <v>72</v>
       </c>
@@ -9271,7 +9262,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
         <v>88</v>
       </c>
@@ -9314,7 +9305,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
         <v>71</v>
       </c>
@@ -9357,7 +9348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
         <v>61</v>
       </c>
@@ -9400,7 +9391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
         <v>52</v>
       </c>
@@ -9443,7 +9434,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
         <v>43</v>
       </c>
@@ -9486,7 +9477,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
         <v>58</v>
       </c>
@@ -9529,7 +9520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
         <v>42</v>
       </c>
@@ -9572,7 +9563,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
         <v>7</v>
       </c>
@@ -9615,7 +9606,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
         <v>19</v>
       </c>
@@ -9658,7 +9649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
         <v>113</v>
       </c>
@@ -9701,7 +9692,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
         <v>106</v>
       </c>
@@ -9744,7 +9735,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
         <v>105</v>
       </c>
@@ -9787,7 +9778,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
         <v>112</v>
       </c>
@@ -9830,7 +9821,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
         <v>111</v>
       </c>
@@ -9873,7 +9864,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
         <v>26</v>
       </c>
@@ -9916,7 +9907,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
         <v>20</v>
       </c>
@@ -9959,7 +9950,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
         <v>33</v>
       </c>
@@ -10002,7 +9993,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
         <v>35</v>
       </c>
@@ -10045,7 +10036,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
         <v>98</v>
       </c>
@@ -10088,7 +10079,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
         <v>87</v>
       </c>
@@ -10131,7 +10122,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
         <v>86</v>
       </c>
@@ -10174,7 +10165,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95" s="5" t="s">
         <v>73</v>
       </c>
@@ -10217,7 +10208,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96" s="5" t="s">
         <v>10</v>
       </c>
@@ -10260,7 +10251,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A97" s="5" t="s">
         <v>6</v>
       </c>
@@ -10303,7 +10294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
         <v>11</v>
       </c>
@@ -10346,7 +10337,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
         <v>97</v>
       </c>
@@ -10389,7 +10380,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
         <v>54</v>
       </c>
@@ -10432,7 +10423,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
         <v>85</v>
       </c>
@@ -10475,7 +10466,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
         <v>44</v>
       </c>
@@ -10518,7 +10509,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A103" s="5" t="s">
         <v>96</v>
       </c>
@@ -10561,7 +10552,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A104" s="5" t="s">
         <v>63</v>
       </c>
@@ -10604,7 +10595,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A105" s="5" t="s">
         <v>74</v>
       </c>
@@ -10647,7 +10638,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A106" s="5" t="s">
         <v>84</v>
       </c>
@@ -10690,7 +10681,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
         <v>75</v>
       </c>
@@ -10733,7 +10724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
         <v>60</v>
       </c>
@@ -10776,7 +10767,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A109" s="5" t="s">
         <v>51</v>
       </c>
@@ -10819,7 +10810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A110" s="5" t="s">
         <v>57</v>
       </c>
@@ -10862,7 +10853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A111" s="5" t="s">
         <v>5</v>
       </c>
@@ -10905,7 +10896,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A112" s="5" t="s">
         <v>104</v>
       </c>
@@ -10948,7 +10939,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A113" s="5" t="s">
         <v>103</v>
       </c>
@@ -10991,7 +10982,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A114" s="5" t="s">
         <v>27</v>
       </c>
@@ -11034,7 +11025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A115" s="5" t="s">
         <v>24</v>
       </c>
@@ -11077,7 +11068,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
         <v>28</v>
       </c>
@@ -11120,7 +11111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A117" s="5" t="s">
         <v>29</v>
       </c>
@@ -11163,7 +11154,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
         <v>83</v>
       </c>
@@ -11206,7 +11197,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A119" s="5" t="s">
         <v>82</v>
       </c>
@@ -11249,7 +11240,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A120" s="5" t="s">
         <v>50</v>
       </c>
@@ -11292,7 +11283,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A121" s="5" t="s">
         <v>14</v>
       </c>
@@ -11335,7 +11326,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A122" s="5" t="s">
         <v>2</v>
       </c>
@@ -11366,7 +11357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A123" s="5" t="s">
         <v>15</v>
       </c>
@@ -11397,7 +11388,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
         <v>68</v>
       </c>
@@ -11428,7 +11419,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A125" s="5" t="s">
         <v>81</v>
       </c>
@@ -11459,7 +11450,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A126" s="5" t="s">
         <v>67</v>
       </c>
@@ -11490,7 +11481,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A127" s="5" t="s">
         <v>23</v>
       </c>
@@ -11521,7 +11512,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A128" s="5" t="s">
         <v>66</v>
       </c>
@@ -11552,7 +11543,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A129" s="5" t="s">
         <v>80</v>
       </c>
@@ -11583,7 +11574,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A130" s="5" t="s">
         <v>59</v>
       </c>
@@ -11614,7 +11605,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A131" s="5" t="s">
         <v>49</v>
       </c>
@@ -11645,7 +11636,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A132" s="5" t="s">
         <v>41</v>
       </c>
@@ -11676,7 +11667,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A133" s="5" t="s">
         <v>40</v>
       </c>
@@ -11707,7 +11698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A134" s="5" t="s">
         <v>3</v>
       </c>
@@ -11738,7 +11729,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A135" s="5" t="s">
         <v>4</v>
       </c>
@@ -11769,7 +11760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A136" s="7">
         <v>2200000020789</v>
       </c>
@@ -11800,7 +11791,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A137" s="7">
         <v>2200000023957</v>
       </c>
@@ -11831,7 +11822,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A138" s="7">
         <v>2200000023124</v>
       </c>
@@ -11862,7 +11853,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A139" s="7">
         <v>2200000019882</v>
       </c>
@@ -11893,7 +11884,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A140" s="7">
         <v>2200000020772</v>
       </c>
@@ -11924,7 +11915,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A141" s="7">
         <v>2200000023964</v>
       </c>
@@ -11955,7 +11946,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A142" s="7">
         <v>2200000023131</v>
       </c>
@@ -11986,7 +11977,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A143" s="7">
         <v>2200000019899</v>
       </c>
@@ -12017,7 +12008,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A144" s="7">
         <v>2200000020765</v>
       </c>
@@ -12048,7 +12039,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A145" s="7">
         <v>2200000023971</v>
       </c>
@@ -12079,7 +12070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A146" s="7">
         <v>2200000023148</v>
       </c>
@@ -12110,7 +12101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A147" s="7">
         <v>2200000019905</v>
       </c>
@@ -12141,7 +12132,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A148" s="7">
         <v>2200000020758</v>
       </c>
@@ -12172,7 +12163,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A149" s="7">
         <v>2200000024725</v>
       </c>
@@ -12203,7 +12194,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A150" s="7">
         <v>2200000023155</v>
       </c>
@@ -12234,7 +12225,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A151" s="7">
         <v>2200000019912</v>
       </c>
@@ -12265,7 +12256,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A152" s="8">
         <v>2200000027214</v>
       </c>
@@ -12296,7 +12287,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A153" s="8">
         <v>2200000017345</v>
       </c>
@@ -12327,7 +12318,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A154" s="8">
         <v>2200000019790</v>
       </c>
@@ -12358,7 +12349,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A155" s="8">
         <v>2200000017352</v>
       </c>
@@ -12389,7 +12380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A156" s="8">
         <v>2200000017369</v>
       </c>
@@ -12420,7 +12411,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A157" s="8">
         <v>2200000010704</v>
       </c>
@@ -12451,7 +12442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A158" s="8">
         <v>2200000032102</v>
       </c>
@@ -12482,7 +12473,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A159" s="8">
         <v>2200000019806</v>
       </c>
@@ -12513,7 +12504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A160" s="8">
         <v>2200000019813</v>
       </c>
@@ -12544,7 +12535,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A161" s="8">
         <v>2200000021212</v>
       </c>
@@ -12575,7 +12566,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A162" s="8">
         <v>2200000021229</v>
       </c>
@@ -12606,7 +12597,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A163" s="8">
         <v>2200000021236</v>
       </c>
@@ -12637,7 +12628,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A164" s="8">
         <v>2200000025005</v>
       </c>
@@ -12668,7 +12659,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A165" s="8">
         <v>2200000025012</v>
       </c>
@@ -12699,7 +12690,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A166" s="8">
         <v>2200000027221</v>
       </c>
@@ -12730,7 +12721,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A167" s="8">
         <v>2200000026934</v>
       </c>
@@ -12761,7 +12752,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A168" s="8">
         <v>2200000016737</v>
       </c>
@@ -12792,7 +12783,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A169" s="8">
         <v>2200000017482</v>
       </c>
@@ -12823,7 +12814,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A170" s="8">
         <v>2200000016744</v>
       </c>
@@ -12854,7 +12845,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A171" s="8">
         <v>2200000016751</v>
       </c>
@@ -12885,7 +12876,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A172" s="8">
         <v>2200000010711</v>
       </c>
@@ -12916,7 +12907,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A173" s="8">
         <v>2200000014900</v>
       </c>
@@ -12947,7 +12938,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A174" s="8">
         <v>2200000014917</v>
       </c>
@@ -12978,7 +12969,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A175" s="8">
         <v>2200000014924</v>
       </c>
@@ -13009,7 +13000,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A176" s="8">
         <v>2200000014931</v>
       </c>
@@ -13040,7 +13031,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A177" s="8">
         <v>2200000022776</v>
       </c>
@@ -13071,7 +13062,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A178" s="8">
         <v>2200000019677</v>
       </c>
@@ -13102,7 +13093,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A179" s="8">
         <v>2200000019349</v>
       </c>
@@ -13133,7 +13124,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A180" s="8">
         <v>2200000019356</v>
       </c>
@@ -13164,7 +13155,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A181" s="8">
         <v>2200000019363</v>
       </c>
@@ -13195,7 +13186,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A182" s="8">
         <v>2200000020925</v>
       </c>
@@ -13226,7 +13217,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A183" s="8">
         <v>2200000020918</v>
       </c>
@@ -13257,7 +13248,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A184" s="8">
         <v>2200000025036</v>
       </c>
@@ -13288,7 +13279,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A185" s="8">
         <v>2200000025043</v>
       </c>
@@ -13319,7 +13310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A186" s="8">
         <v>2200000026941</v>
       </c>
@@ -13350,7 +13341,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A187" s="8">
         <v>2200000026958</v>
       </c>
@@ -13381,7 +13372,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A188" s="8">
         <v>2200000016768</v>
       </c>
@@ -13412,7 +13403,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A189" s="8">
         <v>2200000017499</v>
       </c>
@@ -13443,7 +13434,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A190" s="8">
         <v>2200000016775</v>
       </c>
@@ -13474,7 +13465,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A191" s="8">
         <v>2200000016782</v>
       </c>
@@ -13505,7 +13496,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A192" s="8">
         <v>2200000010728</v>
       </c>
@@ -13536,7 +13527,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A193" s="8">
         <v>2200000014948</v>
       </c>
@@ -13567,7 +13558,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A194" s="8">
         <v>2200000014955</v>
       </c>
@@ -13598,7 +13589,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A195" s="8">
         <v>2200000014962</v>
       </c>
@@ -13629,7 +13620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A196" s="8">
         <v>2200000014979</v>
       </c>
@@ -13660,7 +13651,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A197" s="8">
         <v>2200000022653</v>
       </c>
@@ -13691,7 +13682,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A198" s="8">
         <v>2200000019707</v>
       </c>
@@ -13722,7 +13713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A199" s="8">
         <v>2200000019370</v>
       </c>
@@ -13753,7 +13744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A200" s="8">
         <v>2200000019387</v>
       </c>
@@ -13784,7 +13775,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A201" s="8">
         <v>2200000019394</v>
       </c>
@@ -13815,7 +13806,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A202" s="8">
         <v>2200000020857</v>
       </c>
@@ -13846,7 +13837,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A203" s="8">
         <v>2200000020864</v>
       </c>
@@ -13877,7 +13868,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A204" s="8">
         <v>2200000021533</v>
       </c>
@@ -13908,7 +13899,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A205" s="8">
         <v>2200000025029</v>
       </c>
@@ -13939,7 +13930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A206" s="8">
         <v>2200000026965</v>
       </c>
@@ -13970,7 +13961,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A207" s="8">
         <v>2200000027078</v>
       </c>
@@ -14001,7 +13992,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A208" s="8">
         <v>2200000016799</v>
       </c>
@@ -14032,7 +14023,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A209" s="8">
         <v>2200000019684</v>
       </c>
@@ -14063,7 +14054,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A210" s="8">
         <v>2200000016805</v>
       </c>
@@ -14094,7 +14085,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A211" s="8">
         <v>2200000016812</v>
       </c>
@@ -14125,7 +14116,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A212" s="8">
         <v>2200000010735</v>
       </c>
@@ -14156,7 +14147,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A213" s="8">
         <v>2200000014986</v>
       </c>
@@ -14187,7 +14178,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A214" s="8">
         <v>2200000014993</v>
       </c>
@@ -14218,7 +14209,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A215" s="8">
         <v>2200000015006</v>
       </c>
@@ -14249,7 +14240,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A216" s="8">
         <v>2200000015013</v>
       </c>
@@ -14280,7 +14271,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A217" s="8">
         <v>2200000022660</v>
       </c>
@@ -14311,7 +14302,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A218" s="8">
         <v>2200000019691</v>
       </c>
@@ -14342,7 +14333,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A219" s="8">
         <v>2200000019400</v>
       </c>
@@ -14373,7 +14364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A220" s="8">
         <v>2200000019417</v>
       </c>
@@ -14404,7 +14395,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A221" s="8">
         <v>2200000019424</v>
       </c>
@@ -14435,7 +14426,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A222" s="8">
         <v>2200000020888</v>
       </c>
@@ -14466,7 +14457,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A223" s="8">
         <v>2200000020871</v>
       </c>
@@ -14497,7 +14488,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A224" s="8">
         <v>2200000025333</v>
       </c>
@@ -14528,7 +14519,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A225" s="8">
         <v>2200000025340</v>
       </c>
@@ -14559,7 +14550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A226" s="8">
         <v>2200000027085</v>
       </c>
@@ -14590,7 +14581,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A227" s="8">
         <v>2200000027092</v>
       </c>
@@ -14621,7 +14612,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A228" s="8">
         <v>2200000016829</v>
       </c>
@@ -14652,7 +14643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A229" s="8">
         <v>2200000016836</v>
       </c>
@@ -14683,7 +14674,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A230" s="8">
         <v>2200000016843</v>
       </c>
@@ -14714,7 +14705,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A231" s="8">
         <v>2200000010742</v>
       </c>
@@ -14745,7 +14736,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A232" s="8">
         <v>2200000015020</v>
       </c>
@@ -14776,7 +14767,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A233" s="8">
         <v>2200000015037</v>
       </c>
@@ -14807,7 +14798,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A234" s="8">
         <v>2200000015044</v>
       </c>
@@ -14838,7 +14829,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A235" s="8">
         <v>2200000015051</v>
       </c>
@@ -14869,7 +14860,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A236" s="8">
         <v>2200000022783</v>
       </c>
@@ -14900,7 +14891,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A237" s="8">
         <v>2200000024848</v>
       </c>
@@ -14931,7 +14922,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A238" s="8">
         <v>2200000019431</v>
       </c>
@@ -14962,7 +14953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A239" s="8">
         <v>2200000019448</v>
       </c>
@@ -14993,7 +14984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A240" s="8">
         <v>2200000019455</v>
       </c>
@@ -15024,7 +15015,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A241" s="8">
         <v>2200000020895</v>
       </c>
@@ -15055,7 +15046,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A242" s="8">
         <v>2200000020901</v>
       </c>
@@ -15086,7 +15077,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A243" s="8">
         <v>2200000027108</v>
       </c>
@@ -15117,7 +15108,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A244" s="8">
         <v>2200000011428</v>
       </c>
@@ -15148,7 +15139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A245" s="8">
         <v>2200000011404</v>
       </c>
@@ -15179,7 +15170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A246" s="8">
         <v>2200000011411</v>
       </c>
@@ -15210,7 +15201,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A247" s="8">
         <v>2200000011435</v>
       </c>
@@ -15241,7 +15232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A248" s="8">
         <v>2200000011442</v>
       </c>
@@ -15272,7 +15263,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A249" s="8">
         <v>2200000002785</v>
       </c>
@@ -15303,7 +15294,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A250" s="8">
         <v>2200000002792</v>
       </c>
@@ -15334,7 +15325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A251" s="8">
         <v>2200000002808</v>
       </c>
@@ -15365,7 +15356,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A252" s="8">
         <v>2200000002815</v>
       </c>
@@ -15396,7 +15387,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A253" s="8">
         <v>2200000002822</v>
       </c>
@@ -15427,7 +15418,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A254" s="8">
         <v>2200000002839</v>
       </c>
@@ -15458,7 +15449,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A255" s="8">
         <v>2200000002846</v>
       </c>
@@ -15489,7 +15480,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A256" s="8">
         <v>2200000002853</v>
       </c>
@@ -15520,7 +15511,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A257" s="8">
         <v>2200000002860</v>
       </c>
@@ -15551,7 +15542,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A258" s="8">
         <v>2200000031372</v>
       </c>
@@ -15582,7 +15573,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A259" s="8">
         <v>2200000032133</v>
       </c>
@@ -15613,7 +15604,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A260" s="8">
         <v>2200000032157</v>
       </c>
@@ -15644,7 +15635,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A261" s="8">
         <v>2200000026996</v>
       </c>
@@ -15675,7 +15666,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A262" s="8">
         <v>2200000026286</v>
       </c>
@@ -15706,7 +15697,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A263" s="8">
         <v>2200000002877</v>
       </c>
@@ -15737,7 +15728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A264" s="8">
         <v>2200000002884</v>
       </c>
@@ -15768,7 +15759,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A265" s="8">
         <v>2200000017307</v>
       </c>
@@ -15799,7 +15790,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A266" s="8">
         <v>2200000017314</v>
       </c>
@@ -15830,7 +15821,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A267" s="8">
         <v>2200000017321</v>
       </c>
@@ -15861,7 +15852,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A268" s="8">
         <v>2200000017338</v>
       </c>
@@ -15892,7 +15883,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A269" s="8">
         <v>2200000021540</v>
       </c>
@@ -15923,7 +15914,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A270" s="8">
         <v>2200000021595</v>
       </c>
@@ -15954,7 +15945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A271" s="8">
         <v>2200000017291</v>
       </c>
@@ -15985,7 +15976,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A272" s="8">
         <v>2200000018533</v>
       </c>
@@ -16016,7 +16007,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A273" s="8">
         <v>2200000018540</v>
       </c>
@@ -16047,7 +16038,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A274" s="8">
         <v>2200000018557</v>
       </c>
@@ -16078,7 +16069,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A275" s="8">
         <v>2200000030177</v>
       </c>
@@ -16109,7 +16100,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A276" s="8">
         <v>2200000002891</v>
       </c>
@@ -16140,7 +16131,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A277" s="8">
         <v>2200000002907</v>
       </c>
@@ -16171,7 +16162,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A278" s="8">
         <v>2200000002914</v>
       </c>
@@ -16202,7 +16193,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A279" s="8">
         <v>2200000002921</v>
       </c>
@@ -16233,7 +16224,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A280" s="8">
         <v>2200000002938</v>
       </c>
@@ -16264,7 +16255,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A281" s="8">
         <v>2200000002945</v>
       </c>
@@ -16295,7 +16286,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A282" s="8">
         <v>2200000002952</v>
       </c>
@@ -16326,7 +16317,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A283" s="8">
         <v>2200000002969</v>
       </c>
@@ -16357,7 +16348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A284" s="8">
         <v>2200000002976</v>
       </c>
@@ -16388,7 +16379,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A285" s="8">
         <v>2200000031389</v>
       </c>
@@ -16419,7 +16410,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A286" s="8">
         <v>2200000031969</v>
       </c>
@@ -16450,7 +16441,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A287" s="8">
         <v>2200000013255</v>
       </c>
@@ -16481,7 +16472,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A288" s="8">
         <v>2200000027009</v>
       </c>
@@ -16512,7 +16503,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A289" s="8">
         <v>2200000025258</v>
       </c>
@@ -16543,7 +16534,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A290" s="8">
         <v>2200000002983</v>
       </c>
@@ -16574,7 +16565,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A291" s="8">
         <v>2200000002990</v>
       </c>
@@ -16605,7 +16596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A292" s="8">
         <v>2200000013262</v>
       </c>
@@ -16636,7 +16627,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A293" s="8">
         <v>2200000026781</v>
       </c>
@@ -16667,7 +16658,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A294" s="8">
         <v>2200000022172</v>
       </c>
@@ -16698,7 +16689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A295" s="8">
         <v>2200000011770</v>
       </c>
@@ -16729,7 +16720,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A296" s="8">
         <v>2200000011787</v>
       </c>
@@ -16760,7 +16751,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A297" s="8">
         <v>2200000011794</v>
       </c>
@@ -16791,7 +16782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A298" s="8">
         <v>2200000013279</v>
       </c>
@@ -16822,7 +16813,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A299" s="8">
         <v>2200000013286</v>
       </c>
@@ -16853,7 +16844,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A300" s="8">
         <v>2200000014511</v>
       </c>
@@ -16884,7 +16875,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A301" s="8">
         <v>2200000021939</v>
       </c>
@@ -16915,7 +16906,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="302" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A302" s="8">
         <v>2200000016911</v>
       </c>
@@ -16946,7 +16937,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="303" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A303" s="8">
         <v>2200000018809</v>
       </c>
@@ -16977,7 +16968,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="304" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A304" s="8">
         <v>2200000018816</v>
       </c>
@@ -17008,7 +16999,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="305" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A305" s="8">
         <v>2200000018823</v>
       </c>
@@ -17039,7 +17030,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="306" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A306" s="8">
         <v>2200000019189</v>
       </c>
@@ -17070,7 +17061,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="307" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A307" s="8">
         <v>2200000030351</v>
       </c>
@@ -17101,7 +17092,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="308" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A308" s="8">
         <v>2200000003003</v>
       </c>
@@ -17132,7 +17123,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="309" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A309" s="8">
         <v>2200000003010</v>
       </c>
@@ -17163,7 +17154,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="310" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A310" s="8">
         <v>2200000003027</v>
       </c>
@@ -17194,7 +17185,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="311" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A311" s="8">
         <v>2200000003034</v>
       </c>
@@ -17225,7 +17216,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="312" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A312" s="8">
         <v>2200000003041</v>
       </c>
@@ -17256,7 +17247,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="313" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A313" s="8">
         <v>2200000003058</v>
       </c>
@@ -17287,7 +17278,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="314" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A314" s="8">
         <v>2200000003065</v>
       </c>
@@ -17318,7 +17309,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="315" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A315" s="8">
         <v>2200000003072</v>
       </c>
@@ -17349,7 +17340,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="316" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A316" s="8">
         <v>2200000003089</v>
       </c>
@@ -17380,7 +17371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A317" s="8">
         <v>2200000031273</v>
       </c>
@@ -17411,7 +17402,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="318" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A318" s="8">
         <v>2200000032119</v>
       </c>
@@ -17442,7 +17433,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="319" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A319" s="8">
         <v>2200000032126</v>
       </c>
@@ -17473,7 +17464,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="320" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A320" s="8">
         <v>2200000032140</v>
       </c>
@@ -17504,7 +17495,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="321" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A321" s="8">
         <v>2200000026842</v>
       </c>
@@ -17535,7 +17526,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="322" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A322" s="8">
         <v>2200000024824</v>
       </c>
@@ -17566,7 +17557,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="323" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A323" s="8">
         <v>2200000003096</v>
       </c>
@@ -17597,7 +17588,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="324" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A324" s="8">
         <v>2200000003102</v>
       </c>
@@ -17628,7 +17619,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="325" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A325" s="8">
         <v>2200000012852</v>
       </c>
@@ -17659,7 +17650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A326" s="8">
         <v>2200000026798</v>
       </c>
@@ -17690,7 +17681,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="327" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A327" s="8">
         <v>2200000022189</v>
       </c>
@@ -17721,7 +17712,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="328" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A328" s="8">
         <v>2200000011749</v>
       </c>
@@ -17752,7 +17743,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="329" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A329" s="8">
         <v>2200000011756</v>
       </c>
@@ -17783,7 +17774,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="330" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A330" s="8">
         <v>2200000011763</v>
       </c>
@@ -17814,7 +17805,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="331" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A331" s="8">
         <v>2200000012869</v>
       </c>
@@ -17845,7 +17836,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="332" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A332" s="8">
         <v>2200000013309</v>
       </c>
@@ -17876,7 +17867,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="333" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A333" s="8">
         <v>2200000014528</v>
       </c>
@@ -17907,7 +17898,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="334" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A334" s="8">
         <v>2200000017468</v>
       </c>
@@ -17938,7 +17929,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="335" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A335" s="8">
         <v>2200000016928</v>
       </c>
@@ -17969,7 +17960,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="336" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A336" s="8">
         <v>2200000018205</v>
       </c>
@@ -18000,7 +17991,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="337" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A337" s="8">
         <v>2200000018212</v>
       </c>
@@ -18031,7 +18022,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="338" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A338" s="8">
         <v>2200000018229</v>
       </c>
@@ -18062,7 +18053,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="339" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A339" s="8">
         <v>2200000019295</v>
       </c>
@@ -18093,7 +18084,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="340" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A340" s="8">
         <v>2200000030375</v>
       </c>
@@ -18124,7 +18115,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="341" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A341" s="8">
         <v>2200000003119</v>
       </c>
@@ -18155,7 +18146,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="342" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A342" s="8">
         <v>2200000003126</v>
       </c>
@@ -18186,7 +18177,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="343" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A343" s="8">
         <v>2200000003133</v>
       </c>
@@ -18217,7 +18208,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="344" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A344" s="8">
         <v>2200000003164</v>
       </c>
@@ -18248,7 +18239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A345" s="8">
         <v>2200000003157</v>
       </c>
@@ -18279,7 +18270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A346" s="8">
         <v>2200000003171</v>
       </c>
@@ -18310,7 +18301,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="347" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A347" s="8">
         <v>2200000003188</v>
       </c>
@@ -18341,7 +18332,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="348" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A348" s="8">
         <v>2200000003195</v>
       </c>
@@ -18372,7 +18363,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="349" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A349" s="8">
         <v>2200000021632</v>
       </c>
@@ -18403,7 +18394,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="350" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A350" s="8">
         <v>2200000031310</v>
       </c>
@@ -18434,7 +18425,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="351" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A351" s="8">
         <v>2200000032065</v>
       </c>
@@ -18465,7 +18456,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="352" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A352" s="8">
         <v>2200000013729</v>
       </c>
@@ -18496,7 +18487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A353" s="8">
         <v>2200000027016</v>
       </c>
@@ -18527,7 +18518,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="354" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A354" s="8">
         <v>2200000025265</v>
       </c>
@@ -18558,7 +18549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A355" s="8">
         <v>2200000012876</v>
       </c>
@@ -18589,7 +18580,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="356" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A356" s="8">
         <v>2200000026804</v>
       </c>
@@ -18620,7 +18611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A357" s="8">
         <v>2200000022196</v>
       </c>
@@ -18651,7 +18642,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="358" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A358" s="8">
         <v>2200000012296</v>
       </c>
@@ -18682,7 +18673,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="359" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A359" s="8">
         <v>2200000012302</v>
       </c>
@@ -18713,7 +18704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A360" s="8">
         <v>2200000012319</v>
       </c>
@@ -18744,7 +18735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A361" s="8">
         <v>2200000012883</v>
       </c>
@@ -18775,7 +18766,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="362" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A362" s="8">
         <v>2200000015372</v>
       </c>
@@ -18806,7 +18797,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="363" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A363" s="8">
         <v>2200000017475</v>
       </c>
@@ -18837,7 +18828,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="364" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A364" s="8">
         <v>2200000016935</v>
       </c>
@@ -18868,7 +18859,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="365" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A365" s="8">
         <v>2200000018236</v>
       </c>
@@ -18899,7 +18890,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="366" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A366" s="8">
         <v>2200000018243</v>
       </c>
@@ -18930,7 +18921,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="367" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A367" s="8">
         <v>2200000018250</v>
       </c>
@@ -18961,7 +18952,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="368" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A368" s="8">
         <v>2200000019196</v>
       </c>
@@ -18992,7 +18983,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="369" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A369" s="8">
         <v>2200000029843</v>
       </c>
@@ -19023,7 +19014,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="370" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A370" s="8">
         <v>2200000003201</v>
       </c>
@@ -19054,7 +19045,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="371" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A371" s="8">
         <v>2200000003218</v>
       </c>
@@ -19085,7 +19076,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="372" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A372" s="8">
         <v>2200000003225</v>
       </c>
@@ -19116,7 +19107,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="373" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A373" s="8">
         <v>2200000003140</v>
       </c>
@@ -19147,7 +19138,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="374" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A374" s="8">
         <v>2200000003232</v>
       </c>
@@ -19178,7 +19169,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="375" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A375" s="8">
         <v>2200000003249</v>
       </c>
@@ -19209,7 +19200,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="376" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A376" s="8">
         <v>2200000003256</v>
       </c>
@@ -19240,7 +19231,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="377" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A377" s="8">
         <v>2200000003263</v>
       </c>
@@ -19271,7 +19262,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="378" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A378" s="8">
         <v>2200000003270</v>
       </c>
@@ -19302,7 +19293,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="379" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A379" s="8">
         <v>2200000031488</v>
       </c>
@@ -19333,7 +19324,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="380" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A380" s="8">
         <v>2200000031976</v>
       </c>
@@ -19364,7 +19355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A381" s="8">
         <v>2200000013736</v>
       </c>
@@ -19395,7 +19386,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="382" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A382" s="8">
         <v>2200000027115</v>
       </c>
@@ -19426,7 +19417,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="383" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A383" s="8">
         <v>2200000025579</v>
       </c>
@@ -19457,7 +19448,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="384" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A384" s="8">
         <v>2200000013743</v>
       </c>
@@ -19488,7 +19479,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="385" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A385" s="8">
         <v>2200000027122</v>
       </c>
@@ -19519,7 +19510,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="386" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A386" s="8">
         <v>2200000022202</v>
       </c>
@@ -19550,7 +19541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A387" s="8">
         <v>2200000012326</v>
       </c>
@@ -19581,7 +19572,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="388" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A388" s="8">
         <v>2200000012333</v>
       </c>
@@ -19612,7 +19603,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="389" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A389" s="8">
         <v>2200000012340</v>
       </c>
@@ -19643,7 +19634,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="390" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A390" s="8">
         <v>2200000013750</v>
       </c>
@@ -19674,7 +19665,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="391" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A391" s="8">
         <v>2200000018731</v>
       </c>
@@ -19705,7 +19696,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="392" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A392" s="8">
         <v>2200000021410</v>
       </c>
@@ -19736,7 +19727,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="393" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A393" s="8">
         <v>2200000018748</v>
       </c>
@@ -19767,7 +19758,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="394" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A394" s="8">
         <v>2200000018755</v>
       </c>
@@ -19798,7 +19789,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="395" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A395" s="8">
         <v>2200000018762</v>
       </c>
@@ -19829,7 +19820,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="396" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A396" s="8">
         <v>2200000018779</v>
       </c>
@@ -19860,7 +19851,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="397" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A397" s="8">
         <v>2200000030184</v>
       </c>
@@ -19891,7 +19882,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="398" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A398" s="4">
         <v>2200000015648</v>
       </c>
@@ -19922,7 +19913,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="399" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A399" s="4">
         <v>2200000016256</v>
       </c>
@@ -19953,7 +19944,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="400" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A400" s="4">
         <v>2200000024015</v>
       </c>
@@ -19984,7 +19975,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="401" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A401" s="4">
         <v>2200000020376</v>
       </c>
@@ -20015,7 +20006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A402" s="4">
         <v>2200000008817</v>
       </c>
@@ -20046,7 +20037,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="403" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A403" s="4">
         <v>2200000015655</v>
       </c>
@@ -20077,7 +20068,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="404" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A404" s="4">
         <v>2200000016263</v>
       </c>
@@ -20108,7 +20099,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="405" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A405" s="4">
         <v>2200000023322</v>
       </c>
@@ -20139,7 +20130,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="406" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A406" s="4">
         <v>2200000020383</v>
       </c>
@@ -20170,7 +20161,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="407" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A407" s="4">
         <v>2200000008824</v>
       </c>
@@ -20201,7 +20192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A408" s="4">
         <v>2200000008749</v>
       </c>
@@ -20232,7 +20223,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="409" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A409" s="4">
         <v>2200000015679</v>
       </c>
@@ -20263,7 +20254,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="410" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A410" s="4">
         <v>2200000016010</v>
       </c>
@@ -20294,7 +20285,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="411" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A411" s="4">
         <v>2200000016249</v>
       </c>
@@ -20325,7 +20316,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="412" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A412" s="4">
         <v>2200000023339</v>
       </c>
@@ -20356,7 +20347,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="413" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A413" s="4">
         <v>2200000020390</v>
       </c>
@@ -20387,7 +20378,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="414" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A414" s="4">
         <v>2200000008831</v>
       </c>
@@ -20418,7 +20409,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="415" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A415" s="4">
         <v>2200000008732</v>
       </c>
@@ -20449,7 +20440,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="416" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A416" s="4">
         <v>2200000015662</v>
       </c>
@@ -20480,7 +20471,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="417" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A417" s="4">
         <v>2200000015686</v>
       </c>
@@ -20511,7 +20502,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="418" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A418" s="4">
         <v>2200000016270</v>
       </c>
@@ -20542,7 +20533,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="419" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A419" s="4">
         <v>2200000024022</v>
       </c>
@@ -20573,7 +20564,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="420" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A420" s="4">
         <v>2200000015693</v>
       </c>
@@ -20604,7 +20595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A421" s="4">
         <v>2200000024244</v>
       </c>
@@ -20635,7 +20626,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="422" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A422" s="4">
         <v>2200000028822</v>
       </c>
@@ -20666,7 +20657,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="423" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A423" s="4">
         <v>2200000024251</v>
       </c>
@@ -20697,7 +20688,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="424" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A424" s="4">
         <v>2200000024268</v>
       </c>
@@ -20728,7 +20719,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="425" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A425" s="4">
         <v>2200000028051</v>
       </c>
@@ -20759,7 +20750,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="426" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A426" s="4">
         <v>2200000028426</v>
       </c>
@@ -20790,7 +20781,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="427" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A427" s="4">
         <v>2200000028068</v>
       </c>
@@ -20821,7 +20812,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="428" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A428" s="4">
         <v>2200000024565</v>
       </c>
@@ -20852,7 +20843,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="429" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A429" s="4">
         <v>2200000028280</v>
       </c>
@@ -20883,7 +20874,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="430" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A430" s="4">
         <v>2200000028044</v>
       </c>
@@ -20914,7 +20905,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="431" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A431" s="4">
         <v>2200000024275</v>
       </c>
@@ -20945,7 +20936,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="432" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A432" s="4">
         <v>2200000028839</v>
       </c>
@@ -20964,7 +20955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A433" s="4">
         <v>2200000024282</v>
       </c>
@@ -20983,7 +20974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A434" s="4">
         <v>2200000024299</v>
       </c>
@@ -21002,7 +20993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A435" s="4">
         <v>2200000028082</v>
       </c>
@@ -21021,7 +21012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A436" s="4">
         <v>2200000028228</v>
       </c>
@@ -21040,7 +21031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A437" s="4">
         <v>2200000028099</v>
       </c>
@@ -21059,7 +21050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A438" s="4">
         <v>2200000024572</v>
       </c>
@@ -21078,7 +21069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A439" s="4">
         <v>2200000028440</v>
       </c>
@@ -21097,7 +21088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A440" s="4">
         <v>2200000028075</v>
       </c>
@@ -21116,7 +21107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A441" s="4">
         <v>2200000024305</v>
       </c>
@@ -21135,7 +21126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A442" s="4">
         <v>2200000024312</v>
       </c>
@@ -21154,7 +21145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A443" s="4">
         <v>2200000024329</v>
       </c>
@@ -21173,7 +21164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A444" s="4">
         <v>2200000028211</v>
       </c>
@@ -21192,7 +21183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A445" s="4">
         <v>2200000028297</v>
       </c>
@@ -21211,7 +21202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A446" s="4">
         <v>2200000028204</v>
       </c>
@@ -21230,7 +21221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A447" s="4">
         <v>2200000028303</v>
       </c>
@@ -21249,7 +21240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A448" s="4">
         <v>2200000028136</v>
       </c>
@@ -21268,7 +21259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A449" s="4">
         <v>2200000024374</v>
       </c>
@@ -21287,7 +21278,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A450" s="4">
         <v>2200000028686</v>
       </c>
@@ -21306,7 +21297,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A451" s="4">
         <v>2200000028235</v>
       </c>
@@ -21325,7 +21316,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A452" s="4">
         <v>2200000028242</v>
       </c>
@@ -21344,7 +21335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A453" s="4">
         <v>2200000028259</v>
       </c>
@@ -21363,7 +21354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A454" s="9">
         <v>2200000028761</v>
       </c>
@@ -21382,7 +21373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A455" s="9">
         <v>2200000028754</v>
       </c>
@@ -21401,7 +21392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A456" s="9">
         <v>2200000028402</v>
       </c>
@@ -21420,7 +21411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A457" s="9">
         <v>2200000007445</v>
       </c>
@@ -21439,7 +21430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A458" s="9">
         <v>2200000007452</v>
       </c>
@@ -21458,7 +21449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A459" s="9">
         <v>2200000007469</v>
       </c>
@@ -21477,7 +21468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A460" s="9">
         <v>2200000009067</v>
       </c>
@@ -21496,7 +21487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A461" s="9">
         <v>2200000028976</v>
       </c>
@@ -21515,7 +21506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A462" s="9">
         <v>2200000008558</v>
       </c>
@@ -21534,7 +21525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A463" s="9">
         <v>2200000025616</v>
       </c>
@@ -21553,7 +21544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A464" s="9">
         <v>2200000007476</v>
       </c>
@@ -21572,7 +21563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A465" s="9">
         <v>2200000015594</v>
       </c>
@@ -21591,7 +21582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A466" s="9">
         <v>2200000032614</v>
       </c>
@@ -21610,7 +21601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A467" s="9">
         <v>2200000008565</v>
       </c>
@@ -21629,7 +21620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A468" s="9">
         <v>2200000024398</v>
       </c>
@@ -21648,7 +21639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A469" s="9">
         <v>2200000032621</v>
       </c>
@@ -21667,7 +21658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A470" s="9">
         <v>2200000008572</v>
       </c>
@@ -21686,7 +21677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A471" s="9">
         <v>2200000016287</v>
       </c>
@@ -21705,7 +21696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A472" s="9">
         <v>2200000008589</v>
       </c>
@@ -21724,7 +21715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A473" s="9">
         <v>2200000007483</v>
       </c>
@@ -21743,7 +21734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A474" s="9">
         <v>2200000009050</v>
       </c>
@@ -21762,7 +21753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A475" s="9">
         <v>2200000024503</v>
       </c>
@@ -21781,7 +21772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A476" s="9">
         <v>2200000023872</v>
       </c>
@@ -21800,7 +21791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A477" s="9">
         <v>2200000024510</v>
       </c>
@@ -21819,7 +21810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A478" s="9">
         <v>2200000008183</v>
       </c>
@@ -21838,7 +21829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A479" s="9">
         <v>2200000028778</v>
       </c>
@@ -21857,7 +21848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A480" s="9">
         <v>2200000020550</v>
       </c>
@@ -21876,7 +21867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A481" s="9">
         <v>2200000024459</v>
       </c>
@@ -21895,7 +21886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A482" s="9">
         <v>2200000023865</v>
       </c>
@@ -21914,7 +21905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A483" s="9">
         <v>2200000008190</v>
       </c>
@@ -21933,7 +21924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A484" s="9">
         <v>2200000024404</v>
       </c>
@@ -21952,7 +21943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A485" s="9">
         <v>2200000008176</v>
       </c>
@@ -21971,7 +21962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A486" s="9">
         <v>2200000007490</v>
       </c>
@@ -21990,7 +21981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A487" s="9">
         <v>2200000015792</v>
       </c>
@@ -22009,7 +22000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A488" s="9">
         <v>2200000008138</v>
       </c>
@@ -22028,7 +22019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A489" s="9">
         <v>2200000020567</v>
       </c>
@@ -22047,7 +22038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A490" s="9">
         <v>2200000008596</v>
       </c>
@@ -22066,7 +22057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A491" s="9">
         <v>2200000008602</v>
       </c>
@@ -22085,7 +22076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A492" s="9">
         <v>2200000008848</v>
       </c>
@@ -22104,7 +22095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A493" s="9">
         <v>2200000016294</v>
       </c>
@@ -22123,7 +22114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A494" s="9">
         <v>2200000028785</v>
       </c>
@@ -22142,7 +22133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A495" s="9">
         <v>2200000028419</v>
       </c>
@@ -22161,7 +22152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A496" s="9">
         <v>2200000007506</v>
       </c>
@@ -22180,7 +22171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A497" s="9">
         <v>2200000007513</v>
       </c>
@@ -22199,7 +22190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A498" s="9">
         <v>2200000028983</v>
       </c>
@@ -22218,7 +22209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A499" s="9">
         <v>2200000007520</v>
       </c>
@@ -22237,7 +22228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A500" s="9">
         <v>2200000009005</v>
       </c>
@@ -22256,7 +22247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A501" s="9">
         <v>2200000028990</v>
       </c>
@@ -22275,7 +22266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A502" s="9">
         <v>2200000008619</v>
       </c>
@@ -22294,7 +22285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A503" s="9">
         <v>2200000025623</v>
       </c>
@@ -22313,7 +22304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A504" s="9">
         <v>2200000007537</v>
       </c>
@@ -22332,7 +22323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A505" s="9">
         <v>2200000015600</v>
       </c>
@@ -22351,7 +22342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A506" s="9">
         <v>2200000032638</v>
       </c>
@@ -22370,7 +22361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A507" s="9">
         <v>2200000008626</v>
       </c>
@@ -22389,7 +22380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A508" s="9">
         <v>2200000024411</v>
       </c>
@@ -22408,7 +22399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A509" s="9">
         <v>2200000032645</v>
       </c>
@@ -22427,7 +22418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A510" s="9">
         <v>2200000008633</v>
       </c>
@@ -22446,7 +22437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A511" s="9">
         <v>2200000016300</v>
       </c>
@@ -22465,7 +22456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A512" s="9">
         <v>2200000008640</v>
       </c>
@@ -22484,7 +22475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A513" s="9">
         <v>2200000007544</v>
       </c>
@@ -22503,7 +22494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A514" s="9">
         <v>2200000009012</v>
       </c>
@@ -22522,7 +22513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A515" s="9">
         <v>2200000024527</v>
       </c>
@@ -22541,7 +22532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A516" s="9">
         <v>2200000023841</v>
       </c>
@@ -22560,7 +22551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A517" s="9">
         <v>2200000024534</v>
       </c>
@@ -22579,7 +22570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A518" s="9">
         <v>2200000008268</v>
       </c>
@@ -22598,7 +22589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A519" s="9">
         <v>2200000028792</v>
       </c>
@@ -22617,7 +22608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A520" s="9">
         <v>2200000020574</v>
       </c>
@@ -22636,7 +22627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A521" s="9">
         <v>2200000024466</v>
       </c>
@@ -22655,7 +22646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A522" s="9">
         <v>2200000023858</v>
       </c>
@@ -22674,7 +22665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A523" s="9">
         <v>2200000008206</v>
       </c>
@@ -22693,7 +22684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A524" s="9">
         <v>2200000024428</v>
       </c>
@@ -22712,7 +22703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A525" s="9">
         <v>2200000008251</v>
       </c>
@@ -22731,7 +22722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A526" s="9">
         <v>2200000007551</v>
       </c>
@@ -22750,7 +22741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A527" s="9">
         <v>2200000015815</v>
       </c>
@@ -22769,7 +22760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A528" s="9">
         <v>2200000008213</v>
       </c>
@@ -22788,7 +22779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A529" s="9">
         <v>2200000020581</v>
       </c>
@@ -22807,7 +22798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A530" s="9">
         <v>2200000008657</v>
       </c>
@@ -22826,7 +22817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A531" s="9">
         <v>2200000008664</v>
       </c>
@@ -22845,7 +22836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A532" s="9">
         <v>2200000008855</v>
       </c>
@@ -22864,7 +22855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A533" s="9">
         <v>2200000016317</v>
       </c>
@@ -22883,7 +22874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A534" s="9">
         <v>2200000010148</v>
       </c>
@@ -22902,7 +22893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A535" s="9">
         <v>2200000007568</v>
       </c>
@@ -22921,7 +22912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A536" s="9">
         <v>2200000007575</v>
       </c>
@@ -22940,7 +22931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A537" s="9">
         <v>2200000007582</v>
       </c>
@@ -22959,7 +22950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A538" s="9">
         <v>2200000009036</v>
       </c>
@@ -22978,7 +22969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A539" s="9">
         <v>2200000016324</v>
       </c>
@@ -22997,7 +22988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A540" s="9">
         <v>2200000015617</v>
       </c>
@@ -23016,7 +23007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A541" s="9">
         <v>2200000032652</v>
       </c>
@@ -23035,7 +23026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A542" s="9">
         <v>2200000007599</v>
       </c>
@@ -23054,7 +23045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A543" s="9">
         <v>2200000015624</v>
       </c>
@@ -23073,7 +23064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A544" s="9">
         <v>2200000032669</v>
       </c>
@@ -23092,7 +23083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A545" s="9">
         <v>2200000024435</v>
       </c>
@@ -23111,7 +23102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A546" s="9">
         <v>2200000032676</v>
       </c>
@@ -23130,7 +23121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="547" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A547" s="9">
         <v>2200000016331</v>
       </c>
@@ -23149,7 +23140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A548" s="9">
         <v>2200000009029</v>
       </c>
@@ -23168,7 +23159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A549" s="9">
         <v>2200000007605</v>
       </c>
@@ -23187,7 +23178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A550" s="9">
         <v>2200000009043</v>
       </c>
@@ -23206,7 +23197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A551" s="9">
         <v>2200000024541</v>
       </c>
@@ -23225,7 +23216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A552" s="9">
         <v>2200000023889</v>
       </c>
@@ -23244,7 +23235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A553" s="9">
         <v>2200000024558</v>
       </c>
@@ -23263,7 +23254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A554" s="9">
         <v>2200000020598</v>
       </c>
@@ -23282,7 +23273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A555" s="9">
         <v>2200000028846</v>
       </c>
@@ -23301,7 +23292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A556" s="9">
         <v>2200000020604</v>
       </c>
@@ -23320,7 +23311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A557" s="9">
         <v>2200000024473</v>
       </c>
@@ -23339,7 +23330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A558" s="9">
         <v>2200000023896</v>
       </c>
@@ -23358,7 +23349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A559" s="9">
         <v>2200000015631</v>
       </c>
@@ -23377,7 +23368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A560" s="9">
         <v>2200000024442</v>
       </c>
@@ -23396,7 +23387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A561" s="9">
         <v>2200000008701</v>
       </c>
@@ -23415,7 +23406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A562" s="9">
         <v>2200000007612</v>
       </c>
@@ -23434,7 +23425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A563" s="9">
         <v>2200000015808</v>
       </c>
@@ -23453,7 +23444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A564" s="9">
         <v>2200000008671</v>
       </c>
@@ -23472,7 +23463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A565" s="9">
         <v>2200000020611</v>
       </c>
@@ -23491,7 +23482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A566" s="9">
         <v>2200000008879</v>
       </c>
@@ -23510,7 +23501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A567" s="9">
         <v>2200000008886</v>
       </c>
@@ -23529,7 +23520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A568" s="9">
         <v>2200000008862</v>
       </c>
@@ -23548,7 +23539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A569" s="9">
         <v>2200000016348</v>
       </c>
@@ -23567,7 +23558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A570" s="9">
         <v>2200000009111</v>
       </c>
@@ -23586,7 +23577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A571" s="9">
         <v>2200000009098</v>
       </c>
@@ -23605,7 +23596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A572" s="9">
         <v>2200000023902</v>
       </c>
@@ -23624,7 +23615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A573" s="9">
         <v>2200000024695</v>
       </c>
@@ -23643,7 +23634,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="574" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A574" s="9">
         <v>2200000009104</v>
       </c>
@@ -23662,7 +23653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A575" s="9">
         <v>2200000009074</v>
       </c>
@@ -23681,7 +23672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A576" s="9">
         <v>2200000024718</v>
       </c>
@@ -23700,7 +23691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A577" s="9">
         <v>2200000023919</v>
       </c>
@@ -23719,7 +23710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A578" s="9">
         <v>2200000028853</v>
       </c>
@@ -23738,7 +23729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A579" s="9">
         <v>2200000028860</v>
       </c>
@@ -23757,7 +23748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="580" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A580" s="9">
         <v>2200000024777</v>
       </c>
@@ -23776,7 +23767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A581" s="9">
         <v>2200000024701</v>
       </c>
@@ -23795,7 +23786,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="582" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A582" s="9">
         <v>2200000023926</v>
       </c>
@@ -23814,7 +23805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A583" s="9">
         <v>2200000008947</v>
       </c>
@@ -23833,7 +23824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A584" s="9">
         <v>2200000028877</v>
       </c>
@@ -23852,7 +23843,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="585" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A585" s="9">
         <v>2200000008930</v>
       </c>
@@ -23871,7 +23862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A586" s="9">
         <v>2200000009081</v>
       </c>
@@ -23890,7 +23881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A587" s="9">
         <v>2200000009128</v>
       </c>
@@ -23909,7 +23900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A588" s="9">
         <v>2200000009135</v>
       </c>
@@ -23928,7 +23919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A589" s="9">
         <v>2200000008145</v>
       </c>
@@ -23947,7 +23938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A590" s="9">
         <v>2200000028532</v>
       </c>
@@ -23966,7 +23957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A591" s="9">
         <v>2200000008152</v>
       </c>
@@ -23985,7 +23976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A592" s="9">
         <v>2200000023933</v>
       </c>
@@ -24004,7 +23995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A593" s="9">
         <v>2200000008169</v>
       </c>
@@ -24023,7 +24014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A594" s="9">
         <v>2200000008756</v>
       </c>
@@ -24042,7 +24033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A595" s="9">
         <v>2200000008763</v>
       </c>
@@ -24061,7 +24052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A596" s="9">
         <v>2200000008770</v>
       </c>
@@ -24080,7 +24071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A597" s="9">
         <v>2200000008954</v>
       </c>
@@ -24099,7 +24090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A598" s="9">
         <v>2200000028525</v>
       </c>
@@ -24118,7 +24109,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="599" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A599" s="9">
         <v>2200000028549</v>
       </c>
@@ -24137,7 +24128,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="600" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A600" s="9">
         <v>2200000015938</v>
       </c>
@@ -24156,7 +24147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A601" s="9">
         <v>2200000008220</v>
       </c>
@@ -24175,7 +24166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A602" s="9">
         <v>2200000028624</v>
       </c>
@@ -24194,7 +24185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A603" s="9">
         <v>2200000008237</v>
       </c>
@@ -24213,7 +24204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A604" s="9">
         <v>2200000023940</v>
       </c>
@@ -24232,7 +24223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A605" s="9">
         <v>2200000008244</v>
       </c>
@@ -24251,7 +24242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A606" s="9">
         <v>2200000008787</v>
       </c>
@@ -24270,7 +24261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A607" s="9">
         <v>2200000008794</v>
       </c>
@@ -24289,7 +24280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A608" s="9">
         <v>2200000008800</v>
       </c>
@@ -24308,7 +24299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A609" s="9">
         <v>2200000010162</v>
       </c>
@@ -24327,7 +24318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A610" s="9">
         <v>2200000010155</v>
       </c>
@@ -24346,7 +24337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A611" s="9">
         <v>2200000028631</v>
       </c>
@@ -24365,7 +24356,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="612" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A612" s="9">
         <v>2200000028648</v>
       </c>
@@ -24384,7 +24375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A613" s="9">
         <v>2200000015921</v>
       </c>
@@ -24403,7 +24394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A614" s="9">
         <v>2200000008695</v>
       </c>
@@ -24422,7 +24413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A615" s="9">
         <v>2200000028679</v>
       </c>
@@ -24441,7 +24432,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="616" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A616" s="9">
         <v>2200000008893</v>
       </c>
@@ -24460,7 +24451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A617" s="9">
         <v>2200000008688</v>
       </c>
@@ -24479,7 +24470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A618" s="9">
         <v>2200000008725</v>
       </c>
@@ -24498,7 +24489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A619" s="9">
         <v>2200000008718</v>
       </c>
@@ -24517,7 +24508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A620" s="9">
         <v>2200000015914</v>
       </c>
@@ -24536,7 +24527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A621" s="9">
         <v>2200000028655</v>
       </c>
@@ -24555,7 +24546,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="622" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A622" s="9">
         <v>2200000028662</v>
       </c>
@@ -24574,7 +24565,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="623" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A623" s="9">
         <v>2200000015907</v>
       </c>
@@ -24593,7 +24584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A624" s="9">
         <v>2200000028556</v>
       </c>
@@ -24612,7 +24603,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="625" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A625" s="9">
         <v>2200000008985</v>
       </c>
@@ -24631,7 +24622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A626" s="9">
         <v>2200000008978</v>
       </c>
@@ -24650,7 +24641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A627" s="9">
         <v>2200000008961</v>
       </c>
@@ -24669,7 +24660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A628" s="9">
         <v>2200000028563</v>
       </c>
@@ -24688,7 +24679,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="629" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A629" s="9">
         <v>2200000028570</v>
       </c>
@@ -24707,7 +24698,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="630" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A630" s="9">
         <v>2200000016447</v>
       </c>
@@ -24726,7 +24717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A631" s="9" t="s">
         <v>1685</v>
       </c>
@@ -24745,7 +24736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A632" s="4" t="s">
         <v>1686</v>
       </c>
@@ -24764,7 +24755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A633" s="4" t="s">
         <v>1687</v>
       </c>
@@ -24783,7 +24774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A634" s="4" t="s">
         <v>1688</v>
       </c>
@@ -24802,7 +24793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A635" s="4" t="s">
         <v>1689</v>
       </c>
@@ -24821,7 +24812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A636" s="4" t="s">
         <v>1690</v>
       </c>
@@ -24840,7 +24831,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="637" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A637" s="4" t="s">
         <v>1692</v>
       </c>
@@ -24859,7 +24850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A638" s="4" t="s">
         <v>1693</v>
       </c>
@@ -24878,7 +24869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A639" s="4" t="s">
         <v>1694</v>
       </c>
@@ -24897,7 +24888,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="640" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A640" s="4" t="s">
         <v>1696</v>
       </c>
@@ -24916,7 +24907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A641" s="4" t="s">
         <v>1697</v>
       </c>
@@ -24935,7 +24926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A642" s="4" t="s">
         <v>1698</v>
       </c>
@@ -24950,11 +24941,11 @@
         <v>1416</v>
       </c>
       <c r="F642">
-        <f t="shared" ref="F642:F705" si="21">IFERROR(INDEX(I:I,MATCH(E642,H:H,0),0),0)+IFERROR(INDEX(K:K,MATCH(E642,J:J,0),0),0)+IFERROR(INDEX(M:M,MATCH(E642,L:L,0),0),0)+IFERROR(INDEX(O:O,MATCH(E642,N:N,0),0),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="643" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" ref="F642:F692" si="21">IFERROR(INDEX(I:I,MATCH(E642,H:H,0),0),0)+IFERROR(INDEX(K:K,MATCH(E642,J:J,0),0),0)+IFERROR(INDEX(M:M,MATCH(E642,L:L,0),0),0)+IFERROR(INDEX(O:O,MATCH(E642,N:N,0),0),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="643" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A643" s="4" t="s">
         <v>1699</v>
       </c>
@@ -24973,7 +24964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A644" s="4" t="s">
         <v>1700</v>
       </c>
@@ -24992,7 +24983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A645" s="4" t="s">
         <v>1701</v>
       </c>
@@ -25011,7 +25002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A646" s="4" t="s">
         <v>1702</v>
       </c>
@@ -25030,7 +25021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A647" s="4" t="s">
         <v>1703</v>
       </c>
@@ -25049,7 +25040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A648" s="4" t="s">
         <v>1704</v>
       </c>
@@ -25068,7 +25059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A649" s="4" t="s">
         <v>1705</v>
       </c>
@@ -25087,7 +25078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A650" s="4" t="s">
         <v>1706</v>
       </c>
@@ -25106,7 +25097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A651" s="4" t="s">
         <v>1707</v>
       </c>
@@ -25125,7 +25116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A652" s="4" t="s">
         <v>1708</v>
       </c>
@@ -25144,7 +25135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A653" s="4" t="s">
         <v>1709</v>
       </c>
@@ -25163,7 +25154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A654" s="4" t="s">
         <v>1710</v>
       </c>
@@ -25182,7 +25173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A655" s="4" t="s">
         <v>1711</v>
       </c>
@@ -25201,7 +25192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A656" s="4" t="s">
         <v>1712</v>
       </c>
@@ -25220,7 +25211,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="657" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A657" s="4" t="s">
         <v>1714</v>
       </c>
@@ -25239,7 +25230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A658" s="4" t="s">
         <v>1715</v>
       </c>
@@ -25258,7 +25249,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="659" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A659" s="4" t="s">
         <v>1717</v>
       </c>
@@ -25277,7 +25268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A660" s="4" t="s">
         <v>1718</v>
       </c>
@@ -25296,7 +25287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A661" s="4" t="s">
         <v>1719</v>
       </c>
@@ -25315,7 +25306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A662" s="4" t="s">
         <v>1720</v>
       </c>
@@ -25334,7 +25325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A663" s="4" t="s">
         <v>1721</v>
       </c>
@@ -25353,7 +25344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A664" s="4" t="s">
         <v>1722</v>
       </c>
@@ -25372,7 +25363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="665" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A665" s="4" t="s">
         <v>1723</v>
       </c>
@@ -25391,7 +25382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A666" s="4" t="s">
         <v>1724</v>
       </c>
@@ -25410,7 +25401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A667" s="4" t="s">
         <v>1725</v>
       </c>
@@ -25429,7 +25420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A668" s="4" t="s">
         <v>1726</v>
       </c>
@@ -25448,7 +25439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A669" s="4" t="s">
         <v>1727</v>
       </c>
@@ -25467,7 +25458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A670" s="4" t="s">
         <v>1728</v>
       </c>
@@ -25486,7 +25477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="671" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A671" s="4" t="s">
         <v>1729</v>
       </c>
@@ -25505,7 +25496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="672" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A672" s="4" t="s">
         <v>1731</v>
       </c>
@@ -25524,7 +25515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A673" s="4" t="s">
         <v>1733</v>
       </c>
@@ -25543,7 +25534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="674" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A674" s="4" t="s">
         <v>1734</v>
       </c>
@@ -25562,7 +25553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="675" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A675" s="4" t="s">
         <v>1735</v>
       </c>
@@ -25581,7 +25572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="676" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A676" s="4" t="s">
         <v>1736</v>
       </c>
@@ -25600,7 +25591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="677" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A677" s="4" t="s">
         <v>1737</v>
       </c>
@@ -25619,7 +25610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A678" s="4" t="s">
         <v>1738</v>
       </c>
@@ -25638,7 +25629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="679" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A679" s="4" t="s">
         <v>1739</v>
       </c>
@@ -25657,7 +25648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A680" s="4" t="s">
         <v>1740</v>
       </c>
@@ -25676,7 +25667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A681" s="4" t="s">
         <v>1741</v>
       </c>
@@ -25695,7 +25686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A682" s="4" t="s">
         <v>1742</v>
       </c>
@@ -25714,7 +25705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="683" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A683" s="4" t="s">
         <v>1743</v>
       </c>
@@ -25733,7 +25724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="684" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A684" s="4" t="s">
         <v>1744</v>
       </c>
@@ -25752,7 +25743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="685" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A685" s="4" t="s">
         <v>1745</v>
       </c>
@@ -25771,7 +25762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="686" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A686" s="4" t="s">
         <v>1747</v>
       </c>
@@ -25790,7 +25781,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="687" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A687" s="4" t="s">
         <v>1748</v>
       </c>
@@ -25809,7 +25800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="688" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A688" s="4" t="s">
         <v>1750</v>
       </c>
@@ -25828,7 +25819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="689" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A689" s="4" t="s">
         <v>1751</v>
       </c>
@@ -25847,7 +25838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="690" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A690" s="4" t="s">
         <v>1752</v>
       </c>
@@ -25866,7 +25857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="691" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A691" s="4" t="s">
         <v>1753</v>
       </c>
@@ -25885,7 +25876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="692" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A692" s="4" t="s">
         <v>1754</v>
       </c>
